--- a/schedules_RMG.xlsx
+++ b/schedules_RMG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>Schedule ID</t>
   </si>
@@ -266,6 +266,12 @@
     <t>Floor Trap Inspection: L8-L15: Group 2</t>
   </si>
   <si>
+    <t>2022-02-23 12:07:03</t>
+  </si>
+  <si>
+    <t>2022-02-23 12:07:33</t>
+  </si>
+  <si>
     <t>Hot Water System</t>
   </si>
   <si>
@@ -338,6 +344,15 @@
     <t>Building Management System by Honeywell</t>
   </si>
   <si>
+    <t>2022-02-23 15:36:14</t>
+  </si>
+  <si>
+    <t>2022-02-23 15:42:23</t>
+  </si>
+  <si>
+    <t>Muthu Sathasivam</t>
+  </si>
+  <si>
     <t>Chiller(Carrier)</t>
   </si>
   <si>
@@ -350,9 +365,6 @@
     <t>2022-02-22 00:59:25</t>
   </si>
   <si>
-    <t>Muthu Sathasivam</t>
-  </si>
-  <si>
     <t>Chilled Water Pumpset</t>
   </si>
   <si>
@@ -362,6 +374,9 @@
     <t>2022-02-09 09:18:41</t>
   </si>
   <si>
+    <t>2022-02-24 20:33:39</t>
+  </si>
+  <si>
     <t>Chiller System (Carrier)</t>
   </si>
   <si>
@@ -449,6 +464,12 @@
     <t>Fire Fighting System - Water Monitoring System at L19</t>
   </si>
   <si>
+    <t>2022-02-24 17:26:43</t>
+  </si>
+  <si>
+    <t>2022-02-24 17:27:36</t>
+  </si>
+  <si>
     <t>Fire Alarm / Detection System</t>
   </si>
   <si>
@@ -500,9 +521,66 @@
     <t>Water Sampling Test for Cooling Tower on Standard Platecount</t>
   </si>
   <si>
+    <t>2022-02-25 10:52:53</t>
+  </si>
+  <si>
+    <t>2022-02-25 10:55:02</t>
+  </si>
+  <si>
     <t>Building License</t>
   </si>
   <si>
+    <t>MOM License</t>
+  </si>
+  <si>
+    <t>2 Yearly</t>
+  </si>
+  <si>
+    <t>Compressor - Air Receiver, L2 Dental - 2, Kaeser Dental 3T, AR124244K, 1247</t>
+  </si>
+  <si>
+    <t>PE Inspection / Submission</t>
+  </si>
+  <si>
+    <t>2022-02-24</t>
+  </si>
+  <si>
+    <t>2022-02-16 08:50:23</t>
+  </si>
+  <si>
+    <t>2022-02-16 08:51:15</t>
+  </si>
+  <si>
+    <t>Compressor - Air Receiver, L2 Dental - 4, Kaeser Dental 3T, AR124246A, 1249</t>
+  </si>
+  <si>
+    <t>2022-02-16 08:52:14</t>
+  </si>
+  <si>
+    <t>2022-02-16 08:52:40</t>
+  </si>
+  <si>
+    <t>Compressor - Air Receiver, L2 Dental - 5, Kaeser Dental 3T, AR124247E, 1251</t>
+  </si>
+  <si>
+    <t>2022-02-16 08:53:11</t>
+  </si>
+  <si>
+    <t>2022-02-16 08:54:42</t>
+  </si>
+  <si>
+    <t>PE Inpsection on Lifting Hoist at L3 SP Room, LM592191L</t>
+  </si>
+  <si>
+    <t>2022-02-23</t>
+  </si>
+  <si>
+    <t>2022-02-17 14:50:30</t>
+  </si>
+  <si>
+    <t>2022-02-17 14:50:54</t>
+  </si>
+  <si>
     <t>Calibration Cert</t>
   </si>
   <si>
@@ -522,6 +600,9 @@
   </si>
   <si>
     <t>Medical Compressed Air Cum Dryer at L3</t>
+  </si>
+  <si>
+    <t>2022-02-24 15:33:58</t>
   </si>
 </sst>
 </file>
@@ -857,7 +938,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1698,6 +1779,15 @@
       <c r="O18" t="s">
         <v>31</v>
       </c>
+      <c r="Q18" t="s">
+        <v>83</v>
+      </c>
+      <c r="R18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" t="s">
+        <v>70</v>
+      </c>
       <c r="V18">
         <v>0</v>
       </c>
@@ -1713,7 +1803,7 @@
         <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1722,7 +1812,7 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
         <v>76</v>
@@ -1740,10 +1830,10 @@
         <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S19" t="s">
         <v>70</v>
@@ -1763,7 +1853,7 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1772,7 +1862,7 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
         <v>76</v>
@@ -1790,10 +1880,10 @@
         <v>31</v>
       </c>
       <c r="Q20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S20" t="s">
         <v>70</v>
@@ -1810,10 +1900,10 @@
         <v>5042</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1822,10 +1912,10 @@
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -1840,7 +1930,7 @@
         <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -1854,10 +1944,10 @@
         <v>5054</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1866,10 +1956,10 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -1884,7 +1974,7 @@
         <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -1898,10 +1988,10 @@
         <v>5066</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1910,10 +2000,10 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -1939,10 +2029,10 @@
         <v>5084</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1951,10 +2041,10 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
@@ -1969,13 +2059,13 @@
         <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -1989,10 +2079,10 @@
         <v>5097</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -2001,10 +2091,10 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -2017,6 +2107,15 @@
       </c>
       <c r="O25" t="s">
         <v>31</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>109</v>
+      </c>
+      <c r="R25" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" t="s">
+        <v>111</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2030,10 +2129,10 @@
         <v>5103</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -2042,10 +2141,10 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -2060,10 +2159,10 @@
         <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="R26" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="S26" t="s">
         <v>111</v>
@@ -2080,10 +2179,10 @@
         <v>5106</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -2092,10 +2191,10 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -2110,7 +2209,13 @@
         <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="R27" t="s">
+        <v>119</v>
+      </c>
+      <c r="S27" t="s">
+        <v>111</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2124,10 +2229,10 @@
         <v>5118</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -2136,10 +2241,10 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -2154,10 +2259,10 @@
         <v>31</v>
       </c>
       <c r="Q28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="R28" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="S28" t="s">
         <v>111</v>
@@ -2174,10 +2279,10 @@
         <v>5134</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -2186,10 +2291,10 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
         <v>28</v>
@@ -2204,10 +2309,10 @@
         <v>31</v>
       </c>
       <c r="Q29" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="R29" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="S29" t="s">
         <v>57</v>
@@ -2224,10 +2329,10 @@
         <v>5146</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -2236,10 +2341,10 @@
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -2254,10 +2359,10 @@
         <v>31</v>
       </c>
       <c r="Q30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="R30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S30" t="s">
         <v>57</v>
@@ -2274,10 +2379,10 @@
         <v>5158</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -2286,10 +2391,10 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
         <v>28</v>
@@ -2304,7 +2409,7 @@
         <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2318,10 +2423,10 @@
         <v>5170</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -2330,10 +2435,10 @@
         <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
         <v>28</v>
@@ -2348,10 +2453,10 @@
         <v>31</v>
       </c>
       <c r="Q32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="R32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="S32" t="s">
         <v>70</v>
@@ -2368,10 +2473,10 @@
         <v>5186</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -2380,10 +2485,10 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
@@ -2398,10 +2503,10 @@
         <v>31</v>
       </c>
       <c r="Q33" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="R33" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="S33" t="s">
         <v>70</v>
@@ -2418,10 +2523,10 @@
         <v>5202</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -2430,10 +2535,10 @@
         <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -2448,10 +2553,10 @@
         <v>31</v>
       </c>
       <c r="Q34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="R34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="S34" t="s">
         <v>70</v>
@@ -2468,10 +2573,10 @@
         <v>5214</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -2480,10 +2585,10 @@
         <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -2498,10 +2603,10 @@
         <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="R35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="S35" t="s">
         <v>70</v>
@@ -2518,10 +2623,10 @@
         <v>5225</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2530,10 +2635,10 @@
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
         <v>28</v>
@@ -2546,6 +2651,15 @@
       </c>
       <c r="O36" t="s">
         <v>31</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>149</v>
+      </c>
+      <c r="R36" t="s">
+        <v>150</v>
+      </c>
+      <c r="S36" t="s">
+        <v>57</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -2559,10 +2673,10 @@
         <v>5230</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -2571,10 +2685,10 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
@@ -2589,10 +2703,10 @@
         <v>31</v>
       </c>
       <c r="Q37" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="R37" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="S37" t="s">
         <v>70</v>
@@ -2609,22 +2723,22 @@
         <v>5269</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -2639,10 +2753,10 @@
         <v>31</v>
       </c>
       <c r="Q38" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R38" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="S38" t="s">
         <v>57</v>
@@ -2659,10 +2773,10 @@
         <v>5271</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
@@ -2671,10 +2785,10 @@
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s">
         <v>28</v>
@@ -2700,10 +2814,10 @@
         <v>5286</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -2712,10 +2826,10 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s">
         <v>28</v>
@@ -2730,10 +2844,10 @@
         <v>31</v>
       </c>
       <c r="Q40" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="R40" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="S40" t="s">
         <v>70</v>
@@ -2750,10 +2864,10 @@
         <v>5297</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -2762,10 +2876,10 @@
         <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s">
         <v>28</v>
@@ -2778,6 +2892,15 @@
       </c>
       <c r="O41" t="s">
         <v>31</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>168</v>
+      </c>
+      <c r="R41" t="s">
+        <v>169</v>
+      </c>
+      <c r="S41" t="s">
+        <v>111</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -2788,28 +2911,28 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42">
-        <v>6310</v>
+        <v>6264</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H42" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I42" t="s">
         <v>29</v>
@@ -2818,16 +2941,16 @@
         <v>90</v>
       </c>
       <c r="N42" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O42" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q42" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="R42" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="S42" t="s">
         <v>70</v>
@@ -2841,42 +2964,257 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43">
+        <v>6266</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" t="s">
+        <v>170</v>
+      </c>
+      <c r="H43" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43">
+        <v>90</v>
+      </c>
+      <c r="N43" t="s">
+        <v>175</v>
+      </c>
+      <c r="O43" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>179</v>
+      </c>
+      <c r="R43" t="s">
+        <v>180</v>
+      </c>
+      <c r="S43" t="s">
+        <v>70</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44">
+        <v>6267</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>90</v>
+      </c>
+      <c r="N44" t="s">
+        <v>175</v>
+      </c>
+      <c r="O44" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>182</v>
+      </c>
+      <c r="R44" t="s">
+        <v>183</v>
+      </c>
+      <c r="S44" t="s">
+        <v>70</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45">
+        <v>6295</v>
+      </c>
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>90</v>
+      </c>
+      <c r="N45" t="s">
+        <v>185</v>
+      </c>
+      <c r="O45" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>186</v>
+      </c>
+      <c r="R45" t="s">
+        <v>187</v>
+      </c>
+      <c r="S45" t="s">
+        <v>57</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46">
+        <v>6310</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46">
+        <v>90</v>
+      </c>
+      <c r="N46" t="s">
+        <v>191</v>
+      </c>
+      <c r="O46" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>192</v>
+      </c>
+      <c r="R46" t="s">
+        <v>193</v>
+      </c>
+      <c r="S46" t="s">
+        <v>70</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47">
         <v>6453</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>66</v>
       </c>
-      <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
         <v>26</v>
       </c>
-      <c r="F43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F47" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" t="s">
         <v>62</v>
       </c>
-      <c r="H43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" t="s">
-        <v>31</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>195</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
         <v>0</v>
       </c>
     </row>

--- a/schedules_RMG.xlsx
+++ b/schedules_RMG.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>Schedule ID</t>
   </si>
   <si>
-    <t>Building Trade</t>
+    <t>Trade</t>
   </si>
   <si>
     <t>Trade Category</t>
@@ -113,12 +113,30 @@
     <t>2022-02-28</t>
   </si>
   <si>
+    <t>2022-02-28 10:16:45</t>
+  </si>
+  <si>
+    <t>2022-02-28 10:17:27</t>
+  </si>
+  <si>
+    <t>Murugan</t>
+  </si>
+  <si>
     <t>Building Security System</t>
   </si>
   <si>
     <t>CCTV System</t>
   </si>
   <si>
+    <t>2022-02-25 17:02:28</t>
+  </si>
+  <si>
+    <t>2022-02-25 17:19:34</t>
+  </si>
+  <si>
+    <t>Rajendran Manikandan</t>
+  </si>
+  <si>
     <t>Electrical</t>
   </si>
   <si>
@@ -161,6 +179,15 @@
     <t>Fuel Tank (Diesel) &amp; Control Panel</t>
   </si>
   <si>
+    <t>2022-02-28 10:51:46</t>
+  </si>
+  <si>
+    <t>2022-02-28 10:52:49</t>
+  </si>
+  <si>
+    <t>Li Fei</t>
+  </si>
+  <si>
     <t>Weekly</t>
   </si>
   <si>
@@ -170,12 +197,30 @@
     <t>2022-02-21 11:36:18</t>
   </si>
   <si>
+    <t>2022-02-25 14:38:36</t>
+  </si>
+  <si>
     <t>Generator &amp; Fuel Pump</t>
   </si>
   <si>
+    <t>2022-02-27 10:09:43</t>
+  </si>
+  <si>
+    <t>2022-02-27 10:10:55</t>
+  </si>
+  <si>
+    <t>Packiyaraj</t>
+  </si>
+  <si>
     <t>Nurse Call System</t>
   </si>
   <si>
+    <t>2022-02-25 17:39:51</t>
+  </si>
+  <si>
+    <t>2022-02-26 10:35:16</t>
+  </si>
+  <si>
     <t>PA System</t>
   </si>
   <si>
@@ -188,9 +233,6 @@
     <t>2022-02-10 09:58:32</t>
   </si>
   <si>
-    <t>Li Fei</t>
-  </si>
-  <si>
     <t>UPS</t>
   </si>
   <si>
@@ -209,12 +251,27 @@
     <t>Baby Cot</t>
   </si>
   <si>
+    <t>2022-02-28 10:07:05</t>
+  </si>
+  <si>
+    <t>2022-02-28 10:13:15</t>
+  </si>
+  <si>
     <t>Fridges &amp; Freezers</t>
   </si>
   <si>
     <t>Fridges &amp; Freezers: L1 - L2, L10-L13: Group 1</t>
   </si>
   <si>
+    <t>2022-02-27 01:29:38</t>
+  </si>
+  <si>
+    <t>2022-02-28 09:43:17</t>
+  </si>
+  <si>
+    <t>Muthu Sathasivam</t>
+  </si>
+  <si>
     <t>Medical Gas</t>
   </si>
   <si>
@@ -245,6 +302,12 @@
     <t>Patient Bed L7, 8, 9: Group 1</t>
   </si>
   <si>
+    <t>2022-02-28 10:20:59</t>
+  </si>
+  <si>
+    <t>2022-02-28 10:22:47</t>
+  </si>
+  <si>
     <t>Plumbing &amp; Sanitary</t>
   </si>
   <si>
@@ -308,6 +371,9 @@
     <t>2022-02-09 09:24:32</t>
   </si>
   <si>
+    <t>2022-02-27 21:00:49</t>
+  </si>
+  <si>
     <t>AHU / FCU / CU</t>
   </si>
   <si>
@@ -317,12 +383,21 @@
     <t>2022-02-09 09:20:28</t>
   </si>
   <si>
+    <t>2022-02-27 01:27:15</t>
+  </si>
+  <si>
     <t>Air Purifier</t>
   </si>
   <si>
     <t>Air Purifier at Histology, Cytology, BMT Wards</t>
   </si>
   <si>
+    <t>2022-02-27 01:30:43</t>
+  </si>
+  <si>
+    <t>2022-02-27 20:53:07</t>
+  </si>
+  <si>
     <t>Autodoor</t>
   </si>
   <si>
@@ -335,9 +410,6 @@
     <t>2022-02-13 16:57:43</t>
   </si>
   <si>
-    <t>Rajendran Manikandan</t>
-  </si>
-  <si>
     <t>BMS / BAS</t>
   </si>
   <si>
@@ -350,9 +422,6 @@
     <t>2022-02-23 15:42:23</t>
   </si>
   <si>
-    <t>Muthu Sathasivam</t>
-  </si>
-  <si>
     <t>Chiller(Carrier)</t>
   </si>
   <si>
@@ -413,6 +482,9 @@
     <t>2022-02-09 09:11:47</t>
   </si>
   <si>
+    <t>2022-02-25 17:06:55</t>
+  </si>
+  <si>
     <t>Fire Protection System</t>
   </si>
   <si>
@@ -503,6 +575,12 @@
     <t>Mechanical Ventilation System for FAF, EAF, SPF</t>
   </si>
   <si>
+    <t>2022-02-27 01:28:29</t>
+  </si>
+  <si>
+    <t>2022-02-27 21:30:14</t>
+  </si>
+  <si>
     <t>Pump</t>
   </si>
   <si>
@@ -530,6 +608,168 @@
     <t>Building License</t>
   </si>
   <si>
+    <t>Lift PTO</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 01 L063080/PL1 (Schindler)</t>
+  </si>
+  <si>
+    <t>PE Inspection / Submission</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:14:44</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:15:36</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 02 L063081/PL2 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:16:22</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:17:26</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 03 L063082/PL3 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:18:12</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:18:33</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 04 L063083/PL4 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:24:33</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:25:09</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 05 L063084/PL5 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:25:49</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:26:22</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 06 L063085/PL6 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:27:02</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:27:28</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 07 L063086/PL7 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:30:48</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:31:18</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 08 L063087/PL8 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:32:03</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:32:23</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 09 L063088/BD1 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:32:54</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:33:24</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 10 L063089/BD2 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:33:56</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:34:27</t>
+  </si>
+  <si>
+    <t>PE Inspection on Lift 11 L063090/BD3 (Schindler)</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:35:14</t>
+  </si>
+  <si>
+    <t>2022-02-28 17:36:11</t>
+  </si>
+  <si>
+    <t>Escalator PTO</t>
+  </si>
+  <si>
+    <t>PE Inspection on Escalator 5 E05857 (Fujitec) ES05</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:10:43</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:11:07</t>
+  </si>
+  <si>
+    <t>PE Inspection on Escalator 6 E05856 (Fujitec) ES06</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:11:55</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:12:22</t>
+  </si>
+  <si>
+    <t>PE Inspection on Escalator 7 E05858 (Fujitec) ES07</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:13:13</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:13:35</t>
+  </si>
+  <si>
+    <t>PE Inspection on Escalator 8 E05859 (Fujitec) ES08</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:14:28</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:14:49</t>
+  </si>
+  <si>
+    <t>PE Inspection on Escalator 9 E05860 (Fujitec) ES09</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:15:43</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:16:09</t>
+  </si>
+  <si>
+    <t>PE Inspection on Escalator 10 E05861 (Fujitec) ES10</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:09:28</t>
+  </si>
+  <si>
+    <t>2022-02-17 16:09:51</t>
+  </si>
+  <si>
     <t>MOM License</t>
   </si>
   <si>
@@ -539,9 +779,6 @@
     <t>Compressor - Air Receiver, L2 Dental - 2, Kaeser Dental 3T, AR124244K, 1247</t>
   </si>
   <si>
-    <t>PE Inspection / Submission</t>
-  </si>
-  <si>
     <t>2022-02-24</t>
   </si>
   <si>
@@ -603,6 +840,12 @@
   </si>
   <si>
     <t>2022-02-24 15:33:58</t>
+  </si>
+  <si>
+    <t>2022-02-28 10:31:02</t>
+  </si>
+  <si>
+    <t>Rabart</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1181,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1300,15 @@
       <c r="O2" t="s">
         <v>31</v>
       </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
       <c r="V2">
         <v>0</v>
       </c>
@@ -1069,10 +1321,10 @@
         <v>4396</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1081,10 +1333,10 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -1097,6 +1349,15 @@
       </c>
       <c r="O3" t="s">
         <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1110,10 +1371,10 @@
         <v>4408</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1122,10 +1383,10 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -1140,13 +1401,13 @@
         <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1160,22 +1421,22 @@
         <v>4418</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -1190,13 +1451,13 @@
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1210,22 +1471,22 @@
         <v>4426</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -1238,6 +1499,15 @@
       </c>
       <c r="O6" t="s">
         <v>31</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1251,22 +1521,22 @@
         <v>4438</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -1281,7 +1551,13 @@
         <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1295,22 +1571,22 @@
         <v>4452</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -1323,6 +1599,15 @@
       </c>
       <c r="O8" t="s">
         <v>31</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" t="s">
+        <v>64</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1336,10 +1621,10 @@
         <v>4467</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -1348,10 +1633,10 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
@@ -1364,6 +1649,15 @@
       </c>
       <c r="O9" t="s">
         <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" t="s">
+        <v>64</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1377,22 +1671,22 @@
         <v>4472</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -1407,13 +1701,13 @@
         <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" t="s">
         <v>56</v>
-      </c>
-      <c r="S10" t="s">
-        <v>57</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1427,22 +1721,22 @@
         <v>4488</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -1457,13 +1751,13 @@
         <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1477,22 +1771,22 @@
         <v>4602</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -1505,6 +1799,15 @@
       </c>
       <c r="O12" t="s">
         <v>31</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1518,10 +1821,10 @@
         <v>4634</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1530,10 +1833,10 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -1546,6 +1849,15 @@
       </c>
       <c r="O13" t="s">
         <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" t="s">
+        <v>84</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1559,22 +1871,22 @@
         <v>4655</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -1589,13 +1901,13 @@
         <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="R14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="S14" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1609,22 +1921,22 @@
         <v>4666</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
@@ -1639,13 +1951,13 @@
         <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="R15" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="S15" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1659,22 +1971,22 @@
         <v>4678</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
@@ -1687,6 +1999,15 @@
       </c>
       <c r="O16" t="s">
         <v>31</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" t="s">
+        <v>34</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1700,22 +2021,22 @@
         <v>4702</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -1730,13 +2051,13 @@
         <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="R17" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="S17" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1750,10 +2071,10 @@
         <v>4722</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -1762,10 +2083,10 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -1780,13 +2101,13 @@
         <v>31</v>
       </c>
       <c r="Q18" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="R18" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="S18" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1800,22 +2121,22 @@
         <v>4731</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -1830,13 +2151,13 @@
         <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="R19" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="S19" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1850,22 +2171,22 @@
         <v>4755</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
@@ -1880,13 +2201,13 @@
         <v>31</v>
       </c>
       <c r="Q20" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="R20" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="S20" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -1900,22 +2221,22 @@
         <v>5042</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -1930,7 +2251,13 @@
         <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>96</v>
+        <v>117</v>
+      </c>
+      <c r="R21" t="s">
+        <v>118</v>
+      </c>
+      <c r="S21" t="s">
+        <v>84</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -1944,22 +2271,22 @@
         <v>5054</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -1974,7 +2301,13 @@
         <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>99</v>
+        <v>121</v>
+      </c>
+      <c r="R22" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" t="s">
+        <v>84</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -1988,22 +2321,22 @@
         <v>5066</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -2016,6 +2349,15 @@
       </c>
       <c r="O23" t="s">
         <v>31</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>125</v>
+      </c>
+      <c r="R23" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" t="s">
+        <v>84</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2029,10 +2371,10 @@
         <v>5084</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -2041,10 +2383,10 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
@@ -2059,13 +2401,13 @@
         <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="R24" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="S24" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2079,10 +2421,10 @@
         <v>5097</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -2091,10 +2433,10 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -2109,13 +2451,13 @@
         <v>31</v>
       </c>
       <c r="Q25" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="R25" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="S25" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2129,22 +2471,22 @@
         <v>5103</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -2159,13 +2501,13 @@
         <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="R26" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="S26" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2179,22 +2521,22 @@
         <v>5106</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -2209,13 +2551,13 @@
         <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="R27" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="S27" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2229,22 +2571,22 @@
         <v>5118</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -2259,13 +2601,13 @@
         <v>31</v>
       </c>
       <c r="Q28" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="R28" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="S28" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2279,22 +2621,22 @@
         <v>5134</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
         <v>28</v>
@@ -2309,13 +2651,13 @@
         <v>31</v>
       </c>
       <c r="Q29" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="R29" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2329,22 +2671,22 @@
         <v>5146</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -2359,13 +2701,13 @@
         <v>31</v>
       </c>
       <c r="Q30" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="R30" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2379,22 +2721,22 @@
         <v>5158</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H31" t="s">
         <v>28</v>
@@ -2409,7 +2751,13 @@
         <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>131</v>
+        <v>154</v>
+      </c>
+      <c r="R31" t="s">
+        <v>155</v>
+      </c>
+      <c r="S31" t="s">
+        <v>84</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2423,22 +2771,22 @@
         <v>5170</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H32" t="s">
         <v>28</v>
@@ -2453,13 +2801,13 @@
         <v>31</v>
       </c>
       <c r="Q32" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="R32" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="S32" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2473,10 +2821,10 @@
         <v>5186</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -2485,10 +2833,10 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
@@ -2503,13 +2851,13 @@
         <v>31</v>
       </c>
       <c r="Q33" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="R33" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S33" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -2523,22 +2871,22 @@
         <v>5202</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -2553,13 +2901,13 @@
         <v>31</v>
       </c>
       <c r="Q34" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="R34" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="S34" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -2573,22 +2921,22 @@
         <v>5214</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -2603,13 +2951,13 @@
         <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="R35" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="S35" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -2623,10 +2971,10 @@
         <v>5225</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2635,10 +2983,10 @@
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H36" t="s">
         <v>28</v>
@@ -2653,13 +3001,13 @@
         <v>31</v>
       </c>
       <c r="Q36" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="R36" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -2673,22 +3021,22 @@
         <v>5230</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
@@ -2703,13 +3051,13 @@
         <v>31</v>
       </c>
       <c r="Q37" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="R37" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="S37" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -2723,22 +3071,22 @@
         <v>5269</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -2753,13 +3101,13 @@
         <v>31</v>
       </c>
       <c r="Q38" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="R38" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -2773,22 +3121,22 @@
         <v>5271</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H39" t="s">
         <v>28</v>
@@ -2801,6 +3149,15 @@
       </c>
       <c r="O39" t="s">
         <v>31</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>186</v>
+      </c>
+      <c r="R39" t="s">
+        <v>187</v>
+      </c>
+      <c r="S39" t="s">
+        <v>84</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -2814,10 +3171,10 @@
         <v>5286</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -2826,10 +3183,10 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H40" t="s">
         <v>28</v>
@@ -2844,13 +3201,13 @@
         <v>31</v>
       </c>
       <c r="Q40" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="R40" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="S40" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -2864,22 +3221,22 @@
         <v>5297</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
         <v>28</v>
@@ -2894,13 +3251,13 @@
         <v>31</v>
       </c>
       <c r="Q41" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="R41" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="S41" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -2911,28 +3268,28 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42">
-        <v>6264</v>
+        <v>6327</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="I42" t="s">
         <v>29</v>
@@ -2941,19 +3298,19 @@
         <v>90</v>
       </c>
       <c r="N42" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="O42" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="Q42" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="R42" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="S42" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -2964,28 +3321,28 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43">
-        <v>6266</v>
+        <v>6328</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="I43" t="s">
         <v>29</v>
@@ -2994,19 +3351,19 @@
         <v>90</v>
       </c>
       <c r="N43" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="O43" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="Q43" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="R43" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="S43" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -3017,28 +3374,28 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44">
-        <v>6267</v>
+        <v>6329</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="I44" t="s">
         <v>29</v>
@@ -3047,19 +3404,19 @@
         <v>90</v>
       </c>
       <c r="N44" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="O44" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="Q44" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="R44" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="S44" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3070,28 +3427,28 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45">
-        <v>6295</v>
+        <v>6330</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="F45" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="I45" t="s">
         <v>29</v>
@@ -3100,19 +3457,19 @@
         <v>90</v>
       </c>
       <c r="N45" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="O45" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="Q45" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="R45" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -3123,28 +3480,28 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46">
-        <v>6310</v>
+        <v>6331</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I46" t="s">
         <v>29</v>
@@ -3153,19 +3510,19 @@
         <v>90</v>
       </c>
       <c r="N46" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="O46" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="Q46" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="R46" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="S46" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -3176,45 +3533,952 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47">
+        <v>6332</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47">
+        <v>90</v>
+      </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>215</v>
+      </c>
+      <c r="R47" t="s">
+        <v>216</v>
+      </c>
+      <c r="S47" t="s">
+        <v>56</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48">
+        <v>6333</v>
+      </c>
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48">
+        <v>90</v>
+      </c>
+      <c r="N48" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>218</v>
+      </c>
+      <c r="R48" t="s">
+        <v>219</v>
+      </c>
+      <c r="S48" t="s">
+        <v>56</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49">
+        <v>6334</v>
+      </c>
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49">
+        <v>90</v>
+      </c>
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>221</v>
+      </c>
+      <c r="R49" t="s">
+        <v>222</v>
+      </c>
+      <c r="S49" t="s">
+        <v>56</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50">
+        <v>6335</v>
+      </c>
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" t="s">
+        <v>199</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50">
+        <v>90</v>
+      </c>
+      <c r="N50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>224</v>
+      </c>
+      <c r="R50" t="s">
+        <v>225</v>
+      </c>
+      <c r="S50" t="s">
+        <v>56</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51">
+        <v>6336</v>
+      </c>
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51">
+        <v>90</v>
+      </c>
+      <c r="N51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>227</v>
+      </c>
+      <c r="R51" t="s">
+        <v>228</v>
+      </c>
+      <c r="S51" t="s">
+        <v>56</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52">
+        <v>6337</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" t="s">
+        <v>199</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52">
+        <v>90</v>
+      </c>
+      <c r="N52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>230</v>
+      </c>
+      <c r="R52" t="s">
+        <v>231</v>
+      </c>
+      <c r="S52" t="s">
+        <v>56</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53">
+        <v>6338</v>
+      </c>
+      <c r="B53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" t="s">
+        <v>233</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53">
+        <v>90</v>
+      </c>
+      <c r="N53" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>234</v>
+      </c>
+      <c r="R53" t="s">
+        <v>235</v>
+      </c>
+      <c r="S53" t="s">
+        <v>56</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54">
+        <v>6339</v>
+      </c>
+      <c r="B54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" t="s">
+        <v>199</v>
+      </c>
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54">
+        <v>90</v>
+      </c>
+      <c r="N54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>237</v>
+      </c>
+      <c r="R54" t="s">
+        <v>238</v>
+      </c>
+      <c r="S54" t="s">
+        <v>56</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55">
+        <v>6340</v>
+      </c>
+      <c r="B55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" t="s">
+        <v>239</v>
+      </c>
+      <c r="G55" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" t="s">
+        <v>199</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55">
+        <v>90</v>
+      </c>
+      <c r="N55" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>240</v>
+      </c>
+      <c r="R55" t="s">
+        <v>241</v>
+      </c>
+      <c r="S55" t="s">
+        <v>56</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56">
+        <v>6341</v>
+      </c>
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" t="s">
+        <v>199</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56">
+        <v>90</v>
+      </c>
+      <c r="N56" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>243</v>
+      </c>
+      <c r="R56" t="s">
+        <v>244</v>
+      </c>
+      <c r="S56" t="s">
+        <v>56</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57">
+        <v>6342</v>
+      </c>
+      <c r="B57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57">
+        <v>90</v>
+      </c>
+      <c r="N57" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>246</v>
+      </c>
+      <c r="R57" t="s">
+        <v>247</v>
+      </c>
+      <c r="S57" t="s">
+        <v>56</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58">
+        <v>6343</v>
+      </c>
+      <c r="B58" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" t="s">
+        <v>248</v>
+      </c>
+      <c r="G58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" t="s">
+        <v>199</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58">
+        <v>90</v>
+      </c>
+      <c r="N58" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>249</v>
+      </c>
+      <c r="R58" t="s">
+        <v>250</v>
+      </c>
+      <c r="S58" t="s">
+        <v>56</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59">
+        <v>6264</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" t="s">
+        <v>253</v>
+      </c>
+      <c r="G59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H59" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59">
+        <v>90</v>
+      </c>
+      <c r="N59" t="s">
+        <v>254</v>
+      </c>
+      <c r="O59" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>255</v>
+      </c>
+      <c r="R59" t="s">
+        <v>256</v>
+      </c>
+      <c r="S59" t="s">
+        <v>89</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60">
+        <v>6266</v>
+      </c>
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60">
+        <v>90</v>
+      </c>
+      <c r="N60" t="s">
+        <v>254</v>
+      </c>
+      <c r="O60" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>258</v>
+      </c>
+      <c r="R60" t="s">
+        <v>259</v>
+      </c>
+      <c r="S60" t="s">
+        <v>89</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61">
+        <v>6267</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" t="s">
+        <v>260</v>
+      </c>
+      <c r="G61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" t="s">
+        <v>199</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61">
+        <v>90</v>
+      </c>
+      <c r="N61" t="s">
+        <v>254</v>
+      </c>
+      <c r="O61" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>261</v>
+      </c>
+      <c r="R61" t="s">
+        <v>262</v>
+      </c>
+      <c r="S61" t="s">
+        <v>89</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62">
+        <v>6295</v>
+      </c>
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" t="s">
+        <v>263</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" t="s">
+        <v>199</v>
+      </c>
+      <c r="I62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62">
+        <v>90</v>
+      </c>
+      <c r="N62" t="s">
+        <v>264</v>
+      </c>
+      <c r="O62" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>265</v>
+      </c>
+      <c r="R62" t="s">
+        <v>266</v>
+      </c>
+      <c r="S62" t="s">
+        <v>56</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63">
+        <v>6310</v>
+      </c>
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" t="s">
+        <v>269</v>
+      </c>
+      <c r="I63" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63">
+        <v>90</v>
+      </c>
+      <c r="N63" t="s">
+        <v>270</v>
+      </c>
+      <c r="O63" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>271</v>
+      </c>
+      <c r="R63" t="s">
+        <v>272</v>
+      </c>
+      <c r="S63" t="s">
+        <v>89</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64">
         <v>6453</v>
       </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
         <v>26</v>
       </c>
-      <c r="F47" t="s">
-        <v>194</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F64" t="s">
+        <v>273</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s">
         <v>28</v>
       </c>
-      <c r="I47" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="I64" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" t="s">
         <v>30</v>
       </c>
-      <c r="O47" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>195</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
+      <c r="O64" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>274</v>
+      </c>
+      <c r="R64" t="s">
+        <v>275</v>
+      </c>
+      <c r="S64" t="s">
+        <v>276</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
         <v>0</v>
       </c>
     </row>
